--- a/input_mngen/data.xlsx
+++ b/input_mngen/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CNTL" sheetId="1" state="visible" r:id="rId2"/>
@@ -350,11 +350,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
   </cols>
@@ -381,7 +381,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>8000</v>
@@ -390,7 +390,7 @@
         <v>-25000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,11 +424,11 @@
   </sheetPr>
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="7.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.75"/>
@@ -2890,7 +2890,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
